--- a/Test_api/test_links.xlsx
+++ b/Test_api/test_links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptejaji\Tejaji\git_clones\global-hackathon-v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptejaji\Tejaji\git_clones\global-hackathon-v1\Test_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22B2A30-AFF2-47AB-86BA-C03668EFA0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7696E-7D96-42C0-8CCB-914A71906096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C819D9A-D179-4739-B324-BE6B10456CC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Instagram</t>
   </si>
@@ -174,13 +174,16 @@
   </si>
   <si>
     <t>https://www.quora.com/How-does-a-teacher-remain-patient-when-a-student-constantly-misbehaves/answer/Matthew-Bates-27?ch=15&amp;oid=45729170&amp;share=cfaa5ed1&amp;srid=5hPMz3&amp;target_type=answer</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +212,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -233,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -241,14 +252,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -265,24 +292,28 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -616,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57A958A-3A8E-4C71-9F97-662CAA8632EF}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,25 +708,25 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -704,91 +735,162 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="315" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -796,8 +898,24 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{8C7714A0-FB61-4B8B-8598-E0392BA29545}"/>
     <hyperlink ref="V2" r:id="rId2" xr:uid="{9AED2F86-A12F-4FE0-A7B7-475F5230AFD5}"/>
     <hyperlink ref="W2" r:id="rId3" xr:uid="{ACA3D1F9-41A5-47EE-AA11-426A77381448}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{CC5D9302-BE5D-42DA-895C-03ECB09EF19D}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{15E0CCB9-AC2A-432A-B6E6-5E27FD7CD634}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{F22E05AD-2456-451F-A366-15CA75F9B312}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{4E31C910-51CF-4F6E-B6E0-9AF300317239}"/>
+    <hyperlink ref="F2" r:id="rId8" xr:uid="{281C02E6-1B19-4514-B062-4F68C9B085A6}"/>
+    <hyperlink ref="G2" r:id="rId9" xr:uid="{DB70DED4-FF1A-4D72-B2A8-7E56D2CFFB90}"/>
+    <hyperlink ref="I2" r:id="rId10" xr:uid="{9CE7B9DD-8857-489F-8503-14FD039ED34D}"/>
+    <hyperlink ref="J2" r:id="rId11" xr:uid="{050AA129-B6BF-4E42-B088-3532741B962C}"/>
+    <hyperlink ref="K2" r:id="rId12" xr:uid="{5C7168D0-1267-444B-A142-616C883D8025}"/>
+    <hyperlink ref="L2" r:id="rId13" xr:uid="{5BA30939-3E6E-4943-8A54-EDD7B840324E}"/>
+    <hyperlink ref="M2" r:id="rId14" xr:uid="{2E4A3577-C0C4-4E5A-B1E6-BEA6A5C5387C}"/>
+    <hyperlink ref="O2" r:id="rId15" xr:uid="{F7C0D234-1C76-434C-9F67-32A2D3677A11}"/>
+    <hyperlink ref="P2" r:id="rId16" xr:uid="{18AE0591-5A92-456A-89B7-B7AB68737268}"/>
+    <hyperlink ref="Q2" r:id="rId17" xr:uid="{AD73E613-86B6-4B9A-8F1E-7E402F3D750F}"/>
+    <hyperlink ref="S2" r:id="rId18" xr:uid="{565AD250-E553-4559-B606-23AEB0067FDC}"/>
+    <hyperlink ref="T2" r:id="rId19" xr:uid="{A38743EA-D4E4-4DE6-859B-FC7FE723F8C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>